--- a/biology/Botanique/Tephrosia/Tephrosia.xlsx
+++ b/biology/Botanique/Tephrosia/Tephrosia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tephrosia est un genre de plantes de la famille des Fabaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (27 septembre 2017)[2] :
+          <t>Selon Catalogue of Life                                   (27 septembre 2017) :
 Tephrosia abbottiae C.E.Wood
 Tephrosia acaciifolia Baker
 Tephrosia adunca Benth.
@@ -859,7 +873,7 @@
 Tephrosia zambiana Brummitt
 Tephrosia zollingeri Backer
 Tephrosia zoutspanbergensis Bremek.
-Selon GRIN            (27 septembre 2017)[3] :
+Selon GRIN            (27 septembre 2017) :
 Tephrosia acaciifolia Welw. ex Baker
 Tephrosia adunca Benth.
 Tephrosia aemula (E. Mey.) Harv.
@@ -969,7 +983,7 @@
 Tephrosia virginiana (L.) Pers.
 Tephrosia vogelii Hook. f.
 Tephrosia zoutpansbergensis Bremek.
-Selon ITIS      (27 septembre 2017)[4] :
+Selon ITIS      (27 septembre 2017) :
 Tephrosia angustissima Shuttlew. ex Chapm.
 Tephrosia candida DC.
 Tephrosia chrysophylla Pursh
@@ -1002,7 +1016,7 @@
 Tephrosia villosa (L.) Pers.
 Tephrosia virginiana (L.) Pers.
 Tephrosia vogelii Hook. f.
-Selon The Plant List            (27 septembre 2017)[5] :
+Selon The Plant List            (27 septembre 2017) :
 Tephrosia abbottiae C.E.Wood
 Tephrosia acaciifolia Baker
 Tephrosia adunca Benth.
@@ -1365,7 +1379,7 @@
 Tephrosia zollingeri Backer
 Tephrosia zoutpansbergensis Bremek.
 Tephrosia zoutspanbergensis Bremek.
-Selon Tropicos                                           (27 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (27 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Tephrosia abbottiae C.E. Wood
 Tephrosia acaciifolia Welw. ex Baker
 Tephrosia adscendens Benth.
@@ -1579,7 +1593,7 @@
 Tephrosia fusca Wight &amp; Arn.
 Tephrosia galegoides Graham ex Wall.
 Tephrosia galpinii H.M.L. Forbes
-Tephrosia </t>
+Tephrosia gaudium-solis D</t>
         </is>
       </c>
     </row>
